--- a/tabelacomparativa.xlsx
+++ b/tabelacomparativa.xlsx
@@ -77,12 +77,6 @@
     <t>Java</t>
   </si>
   <si>
-    <t>Bermudez-Ortega, Besada-Portas, Lopez-Orozco, Chacon, &amp; de la Cruz, 2016</t>
-  </si>
-  <si>
-    <t>NodeJS, HTML, Javascript, Easy Javascript Simulations</t>
-  </si>
-  <si>
     <t>SIm</t>
   </si>
   <si>
@@ -117,6 +111,12 @@
       </rPr>
       <t>Remota</t>
     </r>
+  </si>
+  <si>
+    <t>Bermudez-Ortega et al., 2016</t>
+  </si>
+  <si>
+    <t>NodeJS,HTML,Javascript, Easy Javascript Simulations</t>
   </si>
 </sst>
 </file>
@@ -556,20 +556,20 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -621,7 +621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -647,18 +647,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
@@ -670,15 +670,15 @@
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
@@ -696,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
